--- a/Protocollo CS Chat.xlsx
+++ b/Protocollo CS Chat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65c248228c768da9/CS_Chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{4048D065-B4AE-4446-AD84-924E1453603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF043724-0175-7040-910C-8C8656E2B827}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{4048D065-B4AE-4446-AD84-924E1453603B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F0ED11-7F06-45FA-8356-8EF5E2883E19}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16320" xr2:uid="{AE18098C-71A9-FE44-BF52-4E0A06916AF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{AE18098C-71A9-FE44-BF52-4E0A06916AF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Il client invia il messaggio sottoforma di stringa completa delle informazioni necessarie a capire se è un messaggio pubblico o un messaggio privato, allegando l'ID di destinazione. L'utente non potrà utilizzare il carattere "§" nel messaggio. L'utente non potrà utilizzare il carattere ";" nel messaggio.</t>
   </si>
   <si>
-    <t>msgs§&lt;&lt;nickname&gt;&amp;&lt;type&gt;&amp;&lt;msg&gt;&gt;§&lt;&lt;nickname&gt;&amp;&lt;type&gt;&amp;&lt;msg&gt;&gt;§&lt;…&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">Il server invia i messaggi pubblici e i messaggi privati indirizzati al client che li richiede, partendo dall'ultimo messaggio che è stato salvato in un buffer dedicato all'utente, unendoli tutti in una stringa unica e separandoli dal carattere "§". I dati contenuti all'interno del singolo messaggio sono separati dal carattere "&amp;". Il client mostra a schermo i messaggi, mostrando inoltre chi li ha mandati e in che forma, pubblica o privata. </t>
   </si>
   <si>
@@ -152,13 +149,16 @@
   </si>
   <si>
     <t>Il server informa il Client di aver ricevuto più di una richiesta in meno di un secondo da quest'ultimo e lo disiscrive dalla chat per evitare l'insorgere di ulteriori errori.</t>
+  </si>
+  <si>
+    <t>msgs§&lt;&lt;nickname&gt;&amp;&lt;type&gt;&amp;&lt;msg&gt;&amp;&lt;hour&gt;&amp;&lt;minute&gt;&gt;§&lt;&lt;nickname&gt;&amp;&lt;type&gt;&amp;&lt;msg&gt;&amp;&lt;hour&gt;&amp;&lt;minute&gt;&gt;§&lt;…&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,13 +173,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -205,9 +219,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -519,22 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E79974-0C42-E444-9DE8-625CE318B54D}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -551,7 +569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -569,7 +587,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -585,25 +603,26 @@
       <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
+      <c r="C4" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -621,7 +640,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -639,7 +658,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -650,7 +669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
@@ -661,18 +680,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>